--- a/Documents/ろうきんAML_パンチ_不備条件資料20250702.xlsx
+++ b/Documents/ろうきんAML_パンチ_不備条件資料20250702.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7257344D-3AB6-4325-AA93-922B054BD846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="1170" windowWidth="17220" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="435" yWindow="975" windowWidth="22410" windowHeight="14175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="不備条件" sheetId="1" r:id="rId1"/>
     <sheet name="パンチ項目" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="550">
   <si>
     <t>不備コード</t>
     <rPh sb="0" eb="2">
@@ -1351,22 +1352,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>団体種類①（資本多数決か否か）</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>団体種類②（資本多数決か否か）</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>事業内容（業種）①</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>事業内容（業種）②</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>設立年月日変更有無</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -1867,12 +1852,6 @@
     <t>実質的支配者3の国籍</t>
   </si>
   <si>
-    <t>image_file</t>
-  </si>
-  <si>
-    <t>entry_date</t>
-  </si>
-  <si>
     <t>org_name_chg</t>
   </si>
   <si>
@@ -1882,21 +1861,6 @@
     <t>org_kana_new</t>
   </si>
   <si>
-    <t>org_type_1</t>
-  </si>
-  <si>
-    <t>org_type_2</t>
-  </si>
-  <si>
-    <t>biz_type_1</t>
-  </si>
-  <si>
-    <t>biz_type_2</t>
-  </si>
-  <si>
-    <t>biz_type_txt</t>
-  </si>
-  <si>
     <t>est_date_chg</t>
   </si>
   <si>
@@ -1957,9 +1921,6 @@
     <t>purp_cd7</t>
   </si>
   <si>
-    <t>purp_other</t>
-  </si>
-  <si>
     <t>deal_type1</t>
   </si>
   <si>
@@ -2005,9 +1966,6 @@
     <t>cash_src4</t>
   </si>
   <si>
-    <t>cash_src_txt</t>
-  </si>
-  <si>
     <t>rep_name_chg</t>
   </si>
   <si>
@@ -2026,9 +1984,6 @@
     <t>rep_nat</t>
   </si>
   <si>
-    <t>rep_nat_name</t>
-  </si>
-  <si>
     <t>rep_alpha</t>
   </si>
   <si>
@@ -2068,9 +2023,6 @@
     <t>ubo1_nat</t>
   </si>
   <si>
-    <t>ubo1_nat_name</t>
-  </si>
-  <si>
     <t>ubo1_alpha</t>
   </si>
   <si>
@@ -2110,9 +2062,6 @@
     <t>ubo2_nat</t>
   </si>
   <si>
-    <t>ubo2_nat_name</t>
-  </si>
-  <si>
     <t>ubo2_alpha</t>
   </si>
   <si>
@@ -2150,9 +2099,6 @@
   </si>
   <si>
     <t>ubo3_nat</t>
-  </si>
-  <si>
-    <t>ubo3_nat_name</t>
   </si>
   <si>
     <t>ubo3_alpha</t>
@@ -2484,6 +2430,81 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>全角文字</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３つ選択時はどれか２つまでをセット</t>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>事業内容業種その他</t>
+    <rPh sb="4" eb="6">
+      <t>ギョウシュ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>主な製品・サービス</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>YYYYMMDD</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>半角文字</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイフンあり（２つ）</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>5つ選択時はどれか４つまでをセット</t>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>姓と名をワンスぺ空けてセット</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -2495,7 +2516,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="Meiryo UI"/>
         <family val="3"/>
@@ -2506,40 +2527,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>全角文字</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３つ選択時はどれか２つまでをセット</t>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>事業内容業種その他</t>
-    <rPh sb="4" eb="6">
-      <t>ギョウシュ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>主な製品・サービス</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">→なし選択・記入時："0"をセット
 →あり選択・記入時："1"をセット
@@ -2547,7 +2534,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="Meiryo UI"/>
         <family val="3"/>
@@ -2567,61 +2554,13 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>YYYYMMDD</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>半角文字</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハイフンあり（２つ）</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>5つ選択時はどれか４つまでをセット</t>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>200万円超現金取引の原資（その他)</t>
-    <rPh sb="16" eb="17">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>姓と名をワンスぺ空けてセット</t>
-    <rPh sb="0" eb="1">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">01：日本　　02：日本以外
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="Meiryo UI"/>
         <family val="3"/>
@@ -2647,7 +2586,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="Meiryo UI"/>
         <family val="3"/>
@@ -2658,12 +2597,107 @@
     </r>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>団体種類②_資本多数決か否か</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>団体種類①_資本多数決か否か</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>事業内容_業種①</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>事業内容_業種②</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>200万円超現金取引の原資_その他</t>
+    <rPh sb="16" eb="17">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>image_name</t>
+  </si>
+  <si>
+    <t>org_type1</t>
+  </si>
+  <si>
+    <t>org_type2</t>
+  </si>
+  <si>
+    <t>biz_type1</t>
+  </si>
+  <si>
+    <t>biz_type2</t>
+  </si>
+  <si>
+    <t>biz_other</t>
+  </si>
+  <si>
+    <t>product_srv</t>
+  </si>
+  <si>
+    <t>cash_src_oth</t>
+  </si>
+  <si>
+    <t>rep_natname</t>
+  </si>
+  <si>
+    <t>ubo1_natname</t>
+  </si>
+  <si>
+    <t>ubo2_natname</t>
+  </si>
+  <si>
+    <t>ubo3_natname</t>
+  </si>
+  <si>
+    <t>文字数</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>種別</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>フィールド名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>entry_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>purp_other</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2778,13 +2812,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
@@ -2885,7 +2913,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2932,10 +2960,10 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2944,14 +2972,47 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2977,88 +3038,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 8" xfId="1"/>
-    <cellStyle name="標準 8 9" xfId="2"/>
+    <cellStyle name="標準 8" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 8 9" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3364,7 +3350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3409,7 +3395,7 @@
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="34" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -3432,7 +3418,7 @@
       <c r="B4" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
@@ -3453,7 +3439,7 @@
       <c r="B5" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
@@ -3474,7 +3460,7 @@
       <c r="B6" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
@@ -3495,7 +3481,7 @@
       <c r="B7" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
@@ -3510,7 +3496,7 @@
       <c r="B8" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="10" t="s">
         <v>43</v>
       </c>
@@ -3531,7 +3517,7 @@
       <c r="B9" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="10" t="s">
         <v>40</v>
       </c>
@@ -3550,7 +3536,7 @@
       <c r="B10" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3565,7 +3551,7 @@
       <c r="B11" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="11" t="s">
         <v>44</v>
       </c>
@@ -3586,7 +3572,7 @@
       <c r="B12" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="10" t="s">
         <v>28</v>
       </c>
@@ -3605,7 +3591,7 @@
       <c r="B13" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="10" t="s">
         <v>41</v>
       </c>
@@ -3624,11 +3610,11 @@
       <c r="B14" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="26" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="38" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="11" t="s">
@@ -3645,9 +3631,9 @@
       <c r="B15" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
         <v>101</v>
@@ -3660,7 +3646,7 @@
       <c r="B16" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -3681,7 +3667,7 @@
       <c r="B17" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="29"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="10" t="s">
         <v>5</v>
       </c>
@@ -3700,7 +3686,7 @@
       <c r="B18" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="10" t="s">
         <v>54</v>
       </c>
@@ -3719,7 +3705,7 @@
       <c r="B19" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="29"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="10" t="s">
         <v>55</v>
       </c>
@@ -3738,7 +3724,7 @@
       <c r="B20" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="10" t="s">
         <v>59</v>
       </c>
@@ -3757,7 +3743,7 @@
       <c r="B21" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="29"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="10" t="s">
         <v>60</v>
       </c>
@@ -3776,7 +3762,7 @@
       <c r="B22" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="10" t="s">
         <v>61</v>
       </c>
@@ -3795,7 +3781,7 @@
       <c r="B23" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="10" t="s">
         <v>107</v>
       </c>
@@ -3814,7 +3800,7 @@
       <c r="B24" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -3835,7 +3821,7 @@
       <c r="B25" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="10" t="s">
         <v>66</v>
       </c>
@@ -3854,7 +3840,7 @@
       <c r="B26" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -3875,7 +3861,7 @@
       <c r="B27" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="10" t="s">
         <v>64</v>
       </c>
@@ -3894,7 +3880,7 @@
       <c r="B28" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="10" t="s">
         <v>123</v>
       </c>
@@ -3913,7 +3899,7 @@
       <c r="B29" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="24"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="10" t="s">
         <v>69</v>
       </c>
@@ -3932,7 +3918,7 @@
       <c r="B30" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="24"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="10" t="s">
         <v>71</v>
       </c>
@@ -3951,7 +3937,7 @@
       <c r="B31" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C31" s="24"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="10" t="s">
         <v>73</v>
       </c>
@@ -3972,7 +3958,7 @@
       <c r="B32" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C32" s="24"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="10" t="s">
         <v>75</v>
       </c>
@@ -3991,7 +3977,7 @@
       <c r="B33" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C33" s="25"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="10" t="s">
         <v>76</v>
       </c>
@@ -4010,7 +3996,7 @@
       <c r="B34" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="34" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -4031,7 +4017,7 @@
       <c r="B35" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="10" t="s">
         <v>64</v>
       </c>
@@ -4050,7 +4036,7 @@
       <c r="B36" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C36" s="24"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="10" t="s">
         <v>123</v>
       </c>
@@ -4069,7 +4055,7 @@
       <c r="B37" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="10" t="s">
         <v>69</v>
       </c>
@@ -4088,7 +4074,7 @@
       <c r="B38" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="24"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="10" t="s">
         <v>71</v>
       </c>
@@ -4107,7 +4093,7 @@
       <c r="B39" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C39" s="24"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="10" t="s">
         <v>73</v>
       </c>
@@ -4128,7 +4114,7 @@
       <c r="B40" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C40" s="24"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="10" t="s">
         <v>75</v>
       </c>
@@ -4147,7 +4133,7 @@
       <c r="B41" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C41" s="25"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="10" t="s">
         <v>76</v>
       </c>
@@ -4166,7 +4152,7 @@
       <c r="B42" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="34" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="10" t="s">
@@ -4187,7 +4173,7 @@
       <c r="B43" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C43" s="24"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="10" t="s">
         <v>64</v>
       </c>
@@ -4206,7 +4192,7 @@
       <c r="B44" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="24"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="10" t="s">
         <v>123</v>
       </c>
@@ -4225,7 +4211,7 @@
       <c r="B45" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C45" s="24"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="10" t="s">
         <v>69</v>
       </c>
@@ -4244,7 +4230,7 @@
       <c r="B46" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C46" s="24"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="10" t="s">
         <v>71</v>
       </c>
@@ -4263,7 +4249,7 @@
       <c r="B47" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="24"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="10" t="s">
         <v>73</v>
       </c>
@@ -4284,7 +4270,7 @@
       <c r="B48" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C48" s="24"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="10" t="s">
         <v>75</v>
       </c>
@@ -4303,7 +4289,7 @@
       <c r="B49" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C49" s="25"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="10" t="s">
         <v>76</v>
       </c>
@@ -4336,2117 +4322,2128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="2.625" style="3"/>
     <col min="2" max="2" width="4.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="25.5" customHeight="1">
+    <row r="2" spans="2:7">
       <c r="B2" s="18" t="s">
         <v>217</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="31"/>
-    </row>
-    <row r="3" spans="2:7" s="21" customFormat="1" ht="94.5">
+      <c r="D2" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>528</v>
-      </c>
-      <c r="D3" s="33">
+      <c r="C3" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="D3" s="21">
         <v>15</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>529</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="78.75">
+      <c r="E3" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="17">
         <v>2</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="21">
         <v>6</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>530</v>
+      <c r="E4" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>513</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="204.75">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="36">
       <c r="B5" s="16">
         <v>3</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>531</v>
+      <c r="E5" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>523</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="17">
         <v>4</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="21">
         <v>30</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F6" s="34"/>
+      <c r="E6" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F6" s="22"/>
       <c r="G6" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="16">
         <v>5</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="21">
         <v>48</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="F7" s="34"/>
+      <c r="E7" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" s="22"/>
       <c r="G7" s="9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="17">
         <v>6</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="33">
+      <c r="C8" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="D8" s="21">
         <v>1</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="F8" s="34"/>
+      <c r="E8" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F8" s="22"/>
       <c r="G8" s="9" t="s">
-        <v>337</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="16">
         <v>7</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="33">
+      <c r="C9" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="D9" s="21">
         <v>1</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="F9" s="34"/>
+      <c r="E9" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F9" s="22"/>
       <c r="G9" s="9" t="s">
-        <v>338</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="17">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="35">
+      <c r="C10" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="D10" s="23">
         <v>2</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F10" s="32"/>
+      <c r="E10" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="20"/>
       <c r="G10" s="9" t="s">
-        <v>339</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="16">
         <v>9</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="35">
+      <c r="C11" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="D11" s="23">
         <v>2</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>533</v>
+      <c r="E11" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>340</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="17">
         <v>10</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="D12" s="38">
+      <c r="C12" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="D12" s="26">
         <v>10</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F12" s="37"/>
+      <c r="E12" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F12" s="25"/>
       <c r="G12" s="9" t="s">
-        <v>341</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="16">
         <v>11</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>535</v>
-      </c>
-      <c r="D13" s="38">
+      <c r="C13" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D13" s="26">
         <v>10</v>
       </c>
-      <c r="E13" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="2:7" ht="204.75">
+      <c r="E13" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="9" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="36">
       <c r="B14" s="16">
         <v>12</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="D14" s="35">
+      <c r="C14" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="23">
         <v>2</v>
       </c>
-      <c r="E14" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>536</v>
+      <c r="E14" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>524</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="31.5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="17">
         <v>13</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="D15" s="33">
+      <c r="C15" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="21">
         <v>8</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>537</v>
+      <c r="E15" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>518</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="204.75">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="36">
       <c r="B16" s="16">
         <v>14</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="D16" s="33">
+      <c r="C16" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="21">
         <v>2</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>531</v>
+      <c r="E16" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>523</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="17">
         <v>15</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" s="33">
+      <c r="C17" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="21">
         <v>7</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F17" s="34"/>
+      <c r="E17" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F17" s="22"/>
       <c r="G17" s="9" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="16">
         <v>16</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="33">
+      <c r="C18" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="21">
         <v>5</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F18" s="34"/>
+      <c r="E18" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F18" s="22"/>
       <c r="G18" s="9" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="17">
         <v>17</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="D19" s="33">
+      <c r="C19" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="21">
         <v>64</v>
       </c>
-      <c r="E19" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F19" s="34"/>
+      <c r="E19" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F19" s="22"/>
       <c r="G19" s="9" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="16">
         <v>18</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="D20" s="33">
+      <c r="C20" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="21">
         <v>64</v>
       </c>
-      <c r="E20" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F20" s="34"/>
+      <c r="E20" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F20" s="22"/>
       <c r="G20" s="9" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="17">
         <v>19</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="D21" s="33">
+      <c r="C21" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="21">
         <v>64</v>
       </c>
-      <c r="E21" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F21" s="34"/>
+      <c r="E21" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F21" s="22"/>
       <c r="G21" s="9" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="16">
         <v>20</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="D22" s="33">
+      <c r="C22" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="21">
         <v>176</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>538</v>
-      </c>
-      <c r="F22" s="32"/>
+      <c r="E22" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="F22" s="20"/>
       <c r="G22" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="204.75">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="36">
       <c r="B23" s="17">
         <v>21</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="D23" s="35">
+      <c r="C23" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="23">
         <v>2</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>531</v>
+      <c r="E23" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>523</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="16">
         <v>22</v>
       </c>
-      <c r="C24" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="33">
+      <c r="C24" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="21">
         <v>27</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F24" s="34"/>
+      <c r="E24" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F24" s="22"/>
       <c r="G24" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="47.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="16">
         <v>23</v>
       </c>
-      <c r="C25" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="D25" s="33">
+      <c r="C25" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="21">
         <v>13</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>539</v>
+      <c r="E25" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>520</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="204.75">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="36">
       <c r="B26" s="17">
         <v>24</v>
       </c>
-      <c r="C26" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="D26" s="35">
+      <c r="C26" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="23">
         <v>2</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>531</v>
+      <c r="E26" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>523</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="16">
         <v>25</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" s="33">
+      <c r="C27" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="21">
         <v>3</v>
       </c>
-      <c r="E27" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F27" s="34"/>
+      <c r="E27" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F27" s="22"/>
       <c r="G27" s="9" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="17">
         <v>26</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="D28" s="33">
+      <c r="C28" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="21">
         <v>3</v>
       </c>
-      <c r="E28" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F28" s="34"/>
+      <c r="E28" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F28" s="22"/>
       <c r="G28" s="9" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="16">
         <v>27</v>
       </c>
-      <c r="C29" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="33">
+      <c r="C29" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="21">
         <v>3</v>
       </c>
-      <c r="E29" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F29" s="34"/>
+      <c r="E29" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F29" s="22"/>
       <c r="G29" s="9" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="17">
         <v>28</v>
       </c>
-      <c r="C30" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="D30" s="33">
+      <c r="C30" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" s="21">
         <v>3</v>
       </c>
-      <c r="E30" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F30" s="34"/>
+      <c r="E30" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F30" s="22"/>
       <c r="G30" s="9" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="16">
         <v>29</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="D31" s="33">
+      <c r="C31" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" s="21">
         <v>3</v>
       </c>
-      <c r="E31" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F31" s="34"/>
+      <c r="E31" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F31" s="22"/>
       <c r="G31" s="9" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="17">
         <v>30</v>
       </c>
-      <c r="C32" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="D32" s="33">
+      <c r="C32" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" s="21">
         <v>3</v>
       </c>
-      <c r="E32" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F32" s="34"/>
+      <c r="E32" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F32" s="22"/>
       <c r="G32" s="9" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="16">
         <v>31</v>
       </c>
-      <c r="C33" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="D33" s="41">
+      <c r="C33" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" s="29">
         <v>3</v>
       </c>
-      <c r="E33" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="F33" s="42"/>
+      <c r="E33" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="F33" s="30"/>
       <c r="G33" s="9" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="17">
         <v>32</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="D34" s="33">
+      <c r="C34" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" s="21">
         <v>10</v>
       </c>
-      <c r="E34" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F34" s="34"/>
+      <c r="E34" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F34" s="22"/>
       <c r="G34" s="9" t="s">
-        <v>362</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="16">
         <v>33</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="D35" s="33">
+      <c r="C35" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" s="21">
         <v>2</v>
       </c>
-      <c r="E35" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F35" s="34"/>
+      <c r="E35" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F35" s="22"/>
       <c r="G35" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="16">
         <v>34</v>
       </c>
-      <c r="C36" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="D36" s="41">
+      <c r="C36" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" s="29">
         <v>2</v>
       </c>
-      <c r="E36" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>533</v>
+      <c r="E36" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="17">
         <v>35</v>
       </c>
-      <c r="C37" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="D37" s="33">
+      <c r="C37" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" s="21">
         <v>2</v>
       </c>
-      <c r="E37" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F37" s="34"/>
+      <c r="E37" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F37" s="22"/>
       <c r="G37" s="9" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="16">
         <v>36</v>
       </c>
-      <c r="C38" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="D38" s="41">
+      <c r="C38" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" s="29">
         <v>2</v>
       </c>
-      <c r="E38" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>533</v>
+      <c r="E38" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="17">
         <v>37</v>
       </c>
-      <c r="C39" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="D39" s="33">
+      <c r="C39" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="21">
         <v>2</v>
       </c>
-      <c r="E39" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F39" s="34"/>
+      <c r="E39" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F39" s="22"/>
       <c r="G39" s="9" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="16">
         <v>38</v>
       </c>
-      <c r="C40" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="D40" s="33">
+      <c r="C40" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" s="21">
         <v>2</v>
       </c>
-      <c r="E40" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F40" s="34"/>
+      <c r="E40" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F40" s="22"/>
       <c r="G40" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="204.75">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="36">
       <c r="B41" s="17">
         <v>39</v>
       </c>
-      <c r="C41" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="D41" s="35">
+      <c r="C41" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D41" s="23">
         <v>2</v>
       </c>
-      <c r="E41" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>531</v>
+      <c r="E41" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>523</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="16">
         <v>40</v>
       </c>
-      <c r="C42" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="D42" s="33">
+      <c r="C42" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D42" s="21">
         <v>2</v>
       </c>
-      <c r="E42" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F42" s="34"/>
+      <c r="E42" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F42" s="22"/>
       <c r="G42" s="9" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="17">
         <v>41</v>
       </c>
-      <c r="C43" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="D43" s="33">
+      <c r="C43" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" s="21">
         <v>2</v>
       </c>
-      <c r="E43" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F43" s="43" t="s">
-        <v>533</v>
+      <c r="E43" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>515</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="16">
         <v>42</v>
       </c>
-      <c r="C44" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="D44" s="33">
+      <c r="C44" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D44" s="21">
         <v>2</v>
       </c>
-      <c r="E44" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F44" s="34"/>
+      <c r="E44" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F44" s="22"/>
       <c r="G44" s="9" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="17">
         <v>43</v>
       </c>
-      <c r="C45" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="D45" s="33">
+      <c r="C45" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="D45" s="21">
         <v>2</v>
       </c>
-      <c r="E45" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>533</v>
+      <c r="E45" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="16">
         <v>44</v>
       </c>
-      <c r="C46" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="D46" s="33">
+      <c r="C46" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D46" s="21">
         <v>2</v>
       </c>
-      <c r="E46" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F46" s="34"/>
+      <c r="E46" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F46" s="22"/>
       <c r="G46" s="9" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="16">
         <v>45</v>
       </c>
-      <c r="C47" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="D47" s="33">
+      <c r="C47" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" s="21">
         <v>2</v>
       </c>
-      <c r="E47" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F47" s="34"/>
+      <c r="E47" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F47" s="22"/>
       <c r="G47" s="9" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="17">
         <v>46</v>
       </c>
-      <c r="C48" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="D48" s="33">
+      <c r="C48" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="D48" s="21">
         <v>2</v>
       </c>
-      <c r="E48" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F48" s="34"/>
+      <c r="E48" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F48" s="22"/>
       <c r="G48" s="9" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="16">
         <v>47</v>
       </c>
-      <c r="C49" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="D49" s="41">
+      <c r="C49" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D49" s="29">
         <v>2</v>
       </c>
-      <c r="E49" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="F49" s="36" t="s">
-        <v>540</v>
+      <c r="E49" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>521</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="17">
         <v>48</v>
       </c>
-      <c r="C50" s="40" t="s">
-        <v>541</v>
-      </c>
-      <c r="D50" s="41">
+      <c r="C50" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="D50" s="29">
         <v>18</v>
       </c>
-      <c r="E50" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F50" s="42"/>
+      <c r="E50" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F50" s="30"/>
       <c r="G50" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="204.75">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="36">
       <c r="B51" s="16">
         <v>49</v>
       </c>
-      <c r="C51" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="D51" s="35">
+      <c r="C51" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D51" s="23">
         <v>2</v>
       </c>
-      <c r="E51" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>531</v>
+      <c r="E51" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>523</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="63">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="17">
         <v>50</v>
       </c>
-      <c r="C52" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="D52" s="33">
+      <c r="C52" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D52" s="21">
         <v>30</v>
       </c>
-      <c r="E52" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F52" s="44" t="s">
-        <v>542</v>
+      <c r="E52" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="63">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="16">
         <v>51</v>
       </c>
-      <c r="C53" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="D53" s="33">
+      <c r="C53" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D53" s="21">
         <v>48</v>
       </c>
-      <c r="E53" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="F53" s="44" t="s">
-        <v>542</v>
+      <c r="E53" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="31.5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="17">
         <v>52</v>
       </c>
-      <c r="C54" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="D54" s="33">
+      <c r="C54" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D54" s="21">
         <v>8</v>
       </c>
-      <c r="E54" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>537</v>
+      <c r="E54" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>518</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="16">
         <v>53</v>
       </c>
-      <c r="C55" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="D55" s="33">
+      <c r="C55" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D55" s="21">
         <v>10</v>
       </c>
-      <c r="E55" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F55" s="34"/>
+      <c r="E55" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F55" s="22"/>
       <c r="G55" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="126">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="24">
       <c r="B56" s="17">
         <v>54</v>
       </c>
-      <c r="C56" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="D56" s="35">
+      <c r="C56" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D56" s="23">
         <v>4</v>
       </c>
-      <c r="E56" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F56" s="45" t="s">
-        <v>543</v>
+      <c r="E56" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>525</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="16">
         <v>55</v>
       </c>
-      <c r="C57" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="D57" s="33">
+      <c r="C57" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D57" s="21">
         <v>27</v>
       </c>
-      <c r="E57" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F57" s="34"/>
+      <c r="E57" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F57" s="22"/>
       <c r="G57" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="63">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58" s="16">
         <v>56</v>
       </c>
-      <c r="C58" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="D58" s="33">
+      <c r="C58" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" s="21">
         <v>100</v>
       </c>
-      <c r="E58" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F58" s="44" t="s">
-        <v>542</v>
+      <c r="E58" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="17">
         <v>57</v>
       </c>
-      <c r="C59" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="D59" s="33">
+      <c r="C59" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D59" s="21">
         <v>13</v>
       </c>
-      <c r="E59" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F59" s="34"/>
+      <c r="E59" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F59" s="22"/>
       <c r="G59" s="9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="31.5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
       <c r="B60" s="16">
         <v>58</v>
       </c>
-      <c r="C60" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="D60" s="33">
+      <c r="C60" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" s="21">
         <v>8</v>
       </c>
-      <c r="E60" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>537</v>
+      <c r="E60" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>518</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="63">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" s="17">
         <v>59</v>
       </c>
-      <c r="C61" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="D61" s="33">
+      <c r="C61" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D61" s="21">
         <v>30</v>
       </c>
-      <c r="E61" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F61" s="44" t="s">
-        <v>542</v>
+      <c r="E61" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="63">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
       <c r="B62" s="16">
         <v>60</v>
       </c>
-      <c r="C62" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="D62" s="33">
+      <c r="C62" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62" s="21">
         <v>48</v>
       </c>
-      <c r="E62" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="F62" s="44" t="s">
-        <v>542</v>
+      <c r="E62" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="31.5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
       <c r="B63" s="17">
         <v>61</v>
       </c>
-      <c r="C63" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="D63" s="33">
+      <c r="C63" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D63" s="21">
         <v>8</v>
       </c>
-      <c r="E63" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F63" s="34" t="s">
-        <v>537</v>
+      <c r="E63" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>518</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="16">
         <v>62</v>
       </c>
-      <c r="C64" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D64" s="33">
+      <c r="C64" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D64" s="21">
         <v>1</v>
       </c>
-      <c r="E64" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F64" s="34"/>
+      <c r="E64" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F64" s="22"/>
       <c r="G64" s="9" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="17">
         <v>63</v>
       </c>
-      <c r="C65" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="D65" s="33">
+      <c r="C65" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D65" s="21">
         <v>1</v>
       </c>
-      <c r="E65" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F65" s="36" t="s">
-        <v>533</v>
+      <c r="E65" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="16">
         <v>64</v>
       </c>
-      <c r="C66" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="D66" s="33">
+      <c r="C66" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D66" s="21">
         <v>96</v>
       </c>
-      <c r="E66" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F66" s="34"/>
+      <c r="E66" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F66" s="22"/>
       <c r="G66" s="9" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="17">
         <v>65</v>
       </c>
-      <c r="C67" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D67" s="33">
+      <c r="C67" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D67" s="21">
         <v>20</v>
       </c>
-      <c r="E67" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F67" s="34"/>
+      <c r="E67" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F67" s="22"/>
       <c r="G67" s="9" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="16">
         <v>66</v>
       </c>
-      <c r="C68" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="D68" s="33">
+      <c r="C68" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D68" s="21">
         <v>20</v>
       </c>
-      <c r="E68" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F68" s="36" t="s">
-        <v>533</v>
+      <c r="E68" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" ht="204.75">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="36">
       <c r="B69" s="16">
         <v>67</v>
       </c>
-      <c r="C69" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="D69" s="35">
+      <c r="C69" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D69" s="23">
         <v>2</v>
       </c>
-      <c r="E69" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F69" s="34" t="s">
-        <v>531</v>
+      <c r="E69" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>523</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" ht="126">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="24">
       <c r="B70" s="17">
         <v>68</v>
       </c>
-      <c r="C70" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D70" s="35">
+      <c r="C70" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D70" s="23">
         <v>4</v>
       </c>
-      <c r="E70" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F70" s="45" t="s">
-        <v>543</v>
+      <c r="E70" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>525</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="16">
         <v>69</v>
       </c>
-      <c r="C71" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="D71" s="33">
+      <c r="C71" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D71" s="21">
         <v>27</v>
       </c>
-      <c r="E71" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F71" s="34"/>
+      <c r="E71" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F71" s="22"/>
       <c r="G71" s="9" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" ht="63">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
       <c r="B72" s="17">
         <v>70</v>
       </c>
-      <c r="C72" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="D72" s="33">
+      <c r="C72" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D72" s="21">
         <v>100</v>
       </c>
-      <c r="E72" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F72" s="44" t="s">
-        <v>542</v>
+      <c r="E72" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F72" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="16">
         <v>71</v>
       </c>
-      <c r="C73" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="D73" s="33">
+      <c r="C73" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D73" s="21">
         <v>13</v>
       </c>
-      <c r="E73" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F73" s="34"/>
+      <c r="E73" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F73" s="22"/>
       <c r="G73" s="9" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" ht="31.5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
       <c r="B74" s="17">
         <v>72</v>
       </c>
-      <c r="C74" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="D74" s="33">
+      <c r="C74" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D74" s="21">
         <v>8</v>
       </c>
-      <c r="E74" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F74" s="34" t="s">
-        <v>537</v>
+      <c r="E74" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>518</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" ht="63">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
       <c r="B75" s="16">
         <v>73</v>
       </c>
-      <c r="C75" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="D75" s="33">
+      <c r="C75" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D75" s="21">
         <v>30</v>
       </c>
-      <c r="E75" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F75" s="44" t="s">
-        <v>542</v>
+      <c r="E75" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F75" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" ht="63">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
       <c r="B76" s="17">
         <v>74</v>
       </c>
-      <c r="C76" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="D76" s="33">
+      <c r="C76" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D76" s="21">
         <v>48</v>
       </c>
-      <c r="E76" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="F76" s="44" t="s">
-        <v>542</v>
+      <c r="E76" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F76" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" ht="31.5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
       <c r="B77" s="16">
         <v>75</v>
       </c>
-      <c r="C77" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="D77" s="33">
+      <c r="C77" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D77" s="21">
         <v>8</v>
       </c>
-      <c r="E77" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F77" s="34" t="s">
-        <v>537</v>
+      <c r="E77" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>518</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="17">
         <v>76</v>
       </c>
-      <c r="C78" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="D78" s="33">
+      <c r="C78" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D78" s="21">
         <v>1</v>
       </c>
-      <c r="E78" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F78" s="34"/>
+      <c r="E78" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F78" s="22"/>
       <c r="G78" s="9" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="16">
         <v>77</v>
       </c>
-      <c r="C79" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="D79" s="41">
+      <c r="C79" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D79" s="29">
         <v>1</v>
       </c>
-      <c r="E79" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="F79" s="36" t="s">
-        <v>533</v>
+      <c r="E79" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="16">
         <v>78</v>
       </c>
-      <c r="C80" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="D80" s="33">
+      <c r="C80" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D80" s="21">
         <v>96</v>
       </c>
-      <c r="E80" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F80" s="34"/>
+      <c r="E80" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F80" s="22"/>
       <c r="G80" s="9" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="17">
         <v>79</v>
       </c>
-      <c r="C81" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="D81" s="33">
+      <c r="C81" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D81" s="21">
         <v>20</v>
       </c>
-      <c r="E81" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F81" s="34"/>
+      <c r="E81" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F81" s="22"/>
       <c r="G81" s="9" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="16">
         <v>80</v>
       </c>
-      <c r="C82" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="D82" s="33">
+      <c r="C82" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D82" s="21">
         <v>20</v>
       </c>
-      <c r="E82" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F82" s="36" t="s">
-        <v>533</v>
+      <c r="E82" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="204.75">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="36">
       <c r="B83" s="17">
         <v>81</v>
       </c>
-      <c r="C83" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="D83" s="35">
+      <c r="C83" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="D83" s="23">
         <v>2</v>
       </c>
-      <c r="E83" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F83" s="34" t="s">
-        <v>531</v>
+      <c r="E83" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F83" s="22" t="s">
+        <v>523</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" ht="126">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="24">
       <c r="B84" s="16">
         <v>82</v>
       </c>
-      <c r="C84" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D84" s="35">
+      <c r="C84" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D84" s="23">
         <v>4</v>
       </c>
-      <c r="E84" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F84" s="45" t="s">
-        <v>543</v>
+      <c r="E84" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F84" s="33" t="s">
+        <v>525</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="17">
         <v>83</v>
       </c>
-      <c r="C85" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="D85" s="33">
+      <c r="C85" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D85" s="21">
         <v>27</v>
       </c>
-      <c r="E85" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F85" s="34"/>
+      <c r="E85" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F85" s="22"/>
       <c r="G85" s="9" t="s">
-        <v>413</v>
+        <v>542</v>
       </c>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="16">
         <v>84</v>
       </c>
-      <c r="C86" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="D86" s="33">
+      <c r="C86" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="D86" s="21">
         <v>100</v>
       </c>
-      <c r="E86" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F86" s="34"/>
+      <c r="E86" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F86" s="22"/>
       <c r="G86" s="9" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="17">
         <v>85</v>
       </c>
-      <c r="C87" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="D87" s="33">
+      <c r="C87" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="D87" s="21">
         <v>13</v>
       </c>
-      <c r="E87" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F87" s="34"/>
+      <c r="E87" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F87" s="22"/>
       <c r="G87" s="9" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" ht="31.5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
       <c r="B88" s="16">
         <v>86</v>
       </c>
-      <c r="C88" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="D88" s="33">
+      <c r="C88" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="D88" s="21">
         <v>8</v>
       </c>
-      <c r="E88" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F88" s="34" t="s">
-        <v>537</v>
+      <c r="E88" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F88" s="22" t="s">
+        <v>518</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="63">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
       <c r="B89" s="17">
         <v>87</v>
       </c>
-      <c r="C89" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D89" s="33">
+      <c r="C89" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D89" s="21">
         <v>30</v>
       </c>
-      <c r="E89" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F89" s="44" t="s">
-        <v>542</v>
+      <c r="E89" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F89" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" ht="63">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
       <c r="B90" s="16">
         <v>88</v>
       </c>
-      <c r="C90" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="D90" s="33">
+      <c r="C90" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D90" s="21">
         <v>48</v>
       </c>
-      <c r="E90" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="F90" s="44" t="s">
-        <v>542</v>
+      <c r="E90" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F90" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" ht="31.5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
       <c r="B91" s="16">
         <v>89</v>
       </c>
-      <c r="C91" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="D91" s="33">
+      <c r="C91" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D91" s="21">
         <v>8</v>
       </c>
-      <c r="E91" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F91" s="34" t="s">
-        <v>537</v>
+      <c r="E91" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>518</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="17">
         <v>90</v>
       </c>
-      <c r="C92" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="D92" s="33">
+      <c r="C92" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D92" s="21">
         <v>1</v>
       </c>
-      <c r="E92" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F92" s="34"/>
+      <c r="E92" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F92" s="22"/>
       <c r="G92" s="9" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="16">
         <v>91</v>
       </c>
-      <c r="C93" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="D93" s="33">
+      <c r="C93" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D93" s="21">
         <v>1</v>
       </c>
-      <c r="E93" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F93" s="36" t="s">
-        <v>533</v>
+      <c r="E93" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="17">
         <v>92</v>
       </c>
-      <c r="C94" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="D94" s="33">
+      <c r="C94" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="D94" s="21">
         <v>96</v>
       </c>
-      <c r="E94" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F94" s="34"/>
+      <c r="E94" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F94" s="22"/>
       <c r="G94" s="9" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="16">
         <v>93</v>
       </c>
-      <c r="C95" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="D95" s="33">
+      <c r="C95" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D95" s="21">
         <v>20</v>
       </c>
-      <c r="E95" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F95" s="34"/>
+      <c r="E95" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F95" s="22"/>
       <c r="G95" s="9" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="17">
         <v>94</v>
       </c>
-      <c r="C96" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="D96" s="33">
+      <c r="C96" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D96" s="21">
         <v>20</v>
       </c>
-      <c r="E96" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F96" s="36" t="s">
-        <v>533</v>
+      <c r="E96" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" ht="204.75">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="36">
       <c r="B97" s="16">
         <v>95</v>
       </c>
-      <c r="C97" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="D97" s="35">
+      <c r="C97" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D97" s="23">
         <v>2</v>
       </c>
-      <c r="E97" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F97" s="34" t="s">
-        <v>544</v>
+      <c r="E97" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F97" s="22" t="s">
+        <v>526</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" ht="126">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="24">
       <c r="B98" s="17">
         <v>96</v>
       </c>
-      <c r="C98" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D98" s="35">
+      <c r="C98" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D98" s="23">
         <v>4</v>
       </c>
-      <c r="E98" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F98" s="45" t="s">
-        <v>543</v>
+      <c r="E98" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F98" s="33" t="s">
+        <v>525</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="16">
         <v>97</v>
       </c>
-      <c r="C99" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D99" s="33">
+      <c r="C99" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D99" s="21">
         <v>27</v>
       </c>
-      <c r="E99" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F99" s="34"/>
+      <c r="E99" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F99" s="22"/>
       <c r="G99" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" ht="63">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
       <c r="B100" s="17">
         <v>98</v>
       </c>
-      <c r="C100" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="D100" s="33">
+      <c r="C100" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D100" s="21">
         <v>100</v>
       </c>
-      <c r="E100" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F100" s="44" t="s">
-        <v>542</v>
+      <c r="E100" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F100" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="101" spans="2:7">
       <c r="B101" s="16">
         <v>99</v>
       </c>
-      <c r="C101" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="D101" s="33">
+      <c r="C101" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="D101" s="21">
         <v>13</v>
       </c>
-      <c r="E101" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F101" s="34"/>
+      <c r="E101" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F101" s="22"/>
       <c r="G101" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" ht="31.5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
       <c r="B102" s="16">
         <v>100</v>
       </c>
-      <c r="C102" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="D102" s="33">
+      <c r="C102" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="D102" s="21">
         <v>8</v>
       </c>
-      <c r="E102" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F102" s="34" t="s">
-        <v>537</v>
+      <c r="E102" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F102" s="22" t="s">
+        <v>518</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" ht="63">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
       <c r="B103" s="17">
         <v>101</v>
       </c>
-      <c r="C103" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="D103" s="33">
+      <c r="C103" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="D103" s="21">
         <v>30</v>
       </c>
-      <c r="E103" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F103" s="44" t="s">
-        <v>542</v>
+      <c r="E103" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F103" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" ht="63">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
       <c r="B104" s="16">
         <v>102</v>
       </c>
-      <c r="C104" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="D104" s="33">
+      <c r="C104" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D104" s="21">
         <v>48</v>
       </c>
-      <c r="E104" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="F104" s="44" t="s">
-        <v>542</v>
+      <c r="E104" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F104" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="2:7">
       <c r="B105" s="17">
         <v>103</v>
       </c>
-      <c r="C105" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="D105" s="33">
+      <c r="C105" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D105" s="21">
         <v>60</v>
       </c>
-      <c r="E105" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F105" s="34"/>
+      <c r="E105" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F105" s="22"/>
       <c r="G105" s="9" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="16">
         <v>104</v>
       </c>
-      <c r="C106" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="D106" s="33">
+      <c r="C106" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D106" s="21">
         <v>10</v>
       </c>
-      <c r="E106" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F106" s="34"/>
+      <c r="E106" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F106" s="22"/>
       <c r="G106" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" ht="47.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
       <c r="B107" s="17">
         <v>105</v>
       </c>
-      <c r="C107" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="D107" s="33">
+      <c r="C107" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="D107" s="21">
         <v>13</v>
       </c>
-      <c r="E107" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="F107" s="34" t="s">
-        <v>539</v>
+      <c r="E107" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F107" s="22" t="s">
+        <v>520</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="16">
         <v>106</v>
       </c>
-      <c r="C108" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="D108" s="33">
+      <c r="C108" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D108" s="21">
         <v>102</v>
       </c>
-      <c r="E108" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="F108" s="34"/>
+      <c r="E108" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F108" s="22"/>
       <c r="G108" s="9" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="109" spans="2:7">
       <c r="B109" s="17">
         <v>107</v>
       </c>
-      <c r="C109" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="D109" s="33">
+      <c r="C109" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="D109" s="21">
         <v>7</v>
       </c>
-      <c r="E109" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F109" s="34"/>
+      <c r="E109" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F109" s="22"/>
       <c r="G109" s="9" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="16">
         <v>108</v>
       </c>
-      <c r="C110" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="D110" s="33">
+      <c r="C110" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D110" s="21">
         <v>96</v>
       </c>
-      <c r="E110" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="F110" s="34"/>
+      <c r="E110" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F110" s="22"/>
       <c r="G110" s="9" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
     </row>
     <row r="111" spans="2:7">
       <c r="B111" s="17">
         <v>109</v>
       </c>
-      <c r="C111" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="D111" s="33">
+      <c r="C111" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D111" s="21">
         <v>176</v>
       </c>
-      <c r="E111" s="33" t="s">
-        <v>538</v>
-      </c>
-      <c r="F111" s="34"/>
+      <c r="E111" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="F111" s="22"/>
       <c r="G111" s="9" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
+  <conditionalFormatting sqref="C11:C13">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C14 C10">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C22">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C13">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:DF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6852,13 +6849,13 @@
     </row>
     <row r="3" spans="2:110" s="19" customFormat="1">
       <c r="B3" s="19" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>220</v>
@@ -6870,313 +6867,313 @@
         <v>222</v>
       </c>
       <c r="H3" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB3" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="AC3" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="AD3" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="AE3" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="L3" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="M3" s="19" t="s">
+      <c r="AF3" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="AG3" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH3" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="AI3" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="P3" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q3" s="19" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="AK3" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="AL3" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="AM3" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="AN3" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="AO3" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="AP3" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="X3" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y3" s="19" t="s">
+      <c r="AQ3" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="AR3" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AS3" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AT3" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AV3" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AW3" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="AX3" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="AF3" s="19" t="s">
+      <c r="AY3" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="AG3" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AZ3" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="BA3" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="AJ3" s="19" t="s">
+      <c r="BB3" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="BC3" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="BD3" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="AM3" s="19" t="s">
+      <c r="BE3" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="AN3" s="19" t="s">
+      <c r="BF3" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="AO3" s="19" t="s">
+      <c r="BG3" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="AP3" s="19" t="s">
+      <c r="BH3" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="BI3" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="AQ3" s="19" t="s">
+      <c r="BJ3" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="BK3" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="AR3" s="19" t="s">
+      <c r="BL3" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="AS3" s="19" t="s">
+      <c r="BM3" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="BN3" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="BO3" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="AU3" s="19" t="s">
+      <c r="BP3" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="AV3" s="19" t="s">
+      <c r="BQ3" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="AW3" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="AX3" s="19" t="s">
+      <c r="BR3" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="AY3" s="19" t="s">
+      <c r="BS3" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="AZ3" s="19" t="s">
+      <c r="BT3" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="BA3" s="19" t="s">
+      <c r="BU3" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="BB3" s="19" t="s">
+      <c r="BV3" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="BW3" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="BC3" s="19" t="s">
+      <c r="BX3" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="BY3" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="BD3" s="19" t="s">
+      <c r="BZ3" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="BE3" s="19" t="s">
+      <c r="CA3" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="CB3" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="BF3" s="19" t="s">
+      <c r="CC3" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="BG3" s="19" t="s">
+      <c r="CD3" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="BH3" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="BI3" s="19" t="s">
+      <c r="CE3" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="BJ3" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="BK3" s="19" t="s">
+      <c r="CF3" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="BL3" s="19" t="s">
+      <c r="CG3" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="BM3" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="BN3" s="19" t="s">
+      <c r="CH3" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="BO3" s="19" t="s">
+      <c r="CI3" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="BP3" s="19" t="s">
+      <c r="CJ3" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="CK3" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="BQ3" s="19" t="s">
+      <c r="CL3" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="CM3" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="BR3" s="19" t="s">
+      <c r="CN3" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="BS3" s="19" t="s">
+      <c r="CO3" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="CP3" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="BT3" s="19" t="s">
+      <c r="CQ3" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="BU3" s="19" t="s">
+      <c r="CR3" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="BV3" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="BW3" s="19" t="s">
+      <c r="CS3" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="CT3" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="BX3" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="BY3" s="19" t="s">
+      <c r="CU3" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="BZ3" s="19" t="s">
+      <c r="CV3" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="CA3" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="CB3" s="19" t="s">
+      <c r="CW3" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="CC3" s="19" t="s">
+      <c r="CX3" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="CY3" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="CD3" s="19" t="s">
+      <c r="CZ3" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="CE3" s="19" t="s">
+      <c r="DA3" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="CF3" s="19" t="s">
+      <c r="DB3" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="CG3" s="19" t="s">
+      <c r="DC3" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="CH3" s="19" t="s">
+      <c r="DD3" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="DE3" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="DF3" s="19" t="s">
         <v>508</v>
-      </c>
-      <c r="CI3" s="19" t="s">
-        <v>509</v>
-      </c>
-      <c r="CJ3" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="CK3" s="19" t="s">
-        <v>510</v>
-      </c>
-      <c r="CL3" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="CM3" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="CN3" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="CO3" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="CP3" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="CQ3" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="CR3" s="19" t="s">
-        <v>515</v>
-      </c>
-      <c r="CS3" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="CT3" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="CU3" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="CV3" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="CW3" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="CX3" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="CY3" s="19" t="s">
-        <v>520</v>
-      </c>
-      <c r="CZ3" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="DA3" s="19" t="s">
-        <v>522</v>
-      </c>
-      <c r="DB3" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="DC3" s="19" t="s">
-        <v>524</v>
-      </c>
-      <c r="DD3" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="DE3" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="DF3" s="19" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="4" spans="2:110" s="19" customFormat="1">
@@ -7510,331 +7507,331 @@
     </row>
     <row r="5" spans="2:110" s="19" customFormat="1">
       <c r="B5" s="19" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="R5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="V5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="W5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="X5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Y5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Z5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AA5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AB5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AC5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AD5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AE5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AF5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AG5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AH5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AI5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AJ5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AK5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AL5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AM5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AN5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AO5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AP5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AQ5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AR5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AS5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AT5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AU5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AV5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AW5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AX5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AY5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AZ5" s="19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BA5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BB5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BC5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BD5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BE5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BF5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BG5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BH5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BI5" s="19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BJ5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BK5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BL5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BM5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BN5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BO5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BP5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BQ5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BR5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BS5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BT5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BU5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BV5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BW5" s="19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BX5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BY5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BZ5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="CA5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="CB5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="CC5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="CD5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="CE5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="CF5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="CG5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="CH5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="CI5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="CJ5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="CK5" s="19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="CL5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="CM5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="CN5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="CO5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="CP5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="CQ5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="CR5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="CS5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="CT5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="CU5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="CV5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="CW5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="CX5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="CY5" s="19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="CZ5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="DA5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="DB5" s="19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="DC5" s="19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="DD5" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="DE5" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="DF5" s="19" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
